--- a/vtiger-crm-framework-m16/src/test/resources/testScriptDataE2.xlsx
+++ b/vtiger-crm-framework-m16/src/test/resources/testScriptDataE2.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="leads" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">lastName</t>
+  </si>
   <si>
     <t xml:space="preserve">compName</t>
   </si>
@@ -128,7 +132,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,7 +332,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="204" zoomScaleNormal="204" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,25 +342,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>1111</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -368,4 +372,27 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>